--- a/4_Prototyping/Gannt Chart.xlsx
+++ b/4_Prototyping/Gannt Chart.xlsx
@@ -80,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -88,18 +88,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1032,6 +1267,24 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:D7">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Task" dataDxfId="4"/>
+    <tableColumn id="2" name="Start Date" dataDxfId="3"/>
+    <tableColumn id="3" name="Duration" dataDxfId="2"/>
+    <tableColumn id="4" name="End Date" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1298,115 +1551,121 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>43402</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>43406</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>43407</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>43410</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>43411</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>43415</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>43407</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>43418</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>43407</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>43418</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="10">
         <v>43418</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="12">
         <v>43426</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/4_Prototyping/Gannt Chart.xlsx
+++ b/4_Prototyping/Gannt Chart.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21030"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathantang/projects/year2/software-project/4_Prototyping/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_F61A761F0D3363A527E24ABC41E110996E9CAB78" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179020" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,10 +47,10 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Further stakeholder research</t>
+    <t>Storyboard</t>
   </si>
   <si>
-    <t>Storyboard</t>
+    <t>Further stakeholder research</t>
   </si>
   <si>
     <t>UI/UX Prototyping</t>
@@ -62,8 +68,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,19 +229,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="164" formatCode="dd\-mmm"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -270,7 +264,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="164" formatCode="dd\-mmm"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -334,18 +328,33 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -420,26 +429,31 @@
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>43402.0</c:v>
+                  <c:v>43402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43407.0</c:v>
+                  <c:v>43407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43411.0</c:v>
+                  <c:v>43411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43407.0</c:v>
+                  <c:v>43407</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43407.0</c:v>
+                  <c:v>43407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43418.0</c:v>
+                  <c:v>43418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E57-4264-893E-50F0FB573D88}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -498,26 +512,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E57-4264-893E-50F0FB573D88}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -587,7 +606,7 @@
         <c:axId val="-1022777600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="43400.0"/>
+          <c:min val="43400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1249,7 +1268,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1268,18 +1293,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:D7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="Task" dataDxfId="4"/>
-    <tableColumn id="2" name="Start Date" dataDxfId="3"/>
-    <tableColumn id="3" name="Duration" dataDxfId="2"/>
-    <tableColumn id="4" name="End Date" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start Date" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Duration" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="End Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1547,21 +1572,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1575,9 +1600,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>43402</v>
@@ -1590,9 +1615,9 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>43407</v>
@@ -1604,7 +1629,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1618,7 +1643,7 @@
         <v>43415</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1632,7 +1657,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1646,7 +1671,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
